--- a/Modified IdeaFund Normalization Shivam.xlsx
+++ b/Modified IdeaFund Normalization Shivam.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskad\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC2412-E8CA-4412-8439-33AF21A3F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="194">
   <si>
     <t>Sr.No</t>
   </si>
@@ -465,9 +459,6 @@
     <t>PaymentMode</t>
   </si>
   <si>
-    <t>AcceptInvestmentID</t>
-  </si>
-  <si>
     <t>Model Class : UserTC</t>
   </si>
   <si>
@@ -601,12 +592,18 @@
   </si>
   <si>
     <t>Indicates</t>
+  </si>
+  <si>
+    <t>AcceptIVID</t>
+  </si>
+  <si>
+    <t>AcceptIVDesc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,6 +789,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,27 +817,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -849,9 +837,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -889,7 +877,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -961,7 +949,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1134,51 +1122,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.53125" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.86328125" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1328125" customWidth="1"/>
-    <col min="12" max="13" width="5.86328125" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" customWidth="1"/>
-    <col min="16" max="16" width="5.1328125" customWidth="1"/>
+    <col min="1" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="G3" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="M3" s="19" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="M3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1254,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1286,7 +1274,7 @@
       </c>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1312,7 +1300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -1325,14 +1313,14 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>5</v>
       </c>
@@ -1357,14 +1345,14 @@
       <c r="J9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -1402,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1438,7 +1426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>8</v>
       </c>
@@ -1472,7 +1460,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>9</v>
       </c>
@@ -1501,7 +1489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -1514,14 +1502,14 @@
       <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -1546,14 +1534,14 @@
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>12</v>
       </c>
@@ -1591,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -1627,7 +1615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>14</v>
       </c>
@@ -1645,7 +1633,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M19" s="6">
         <v>2</v>
       </c>
@@ -1657,19 +1645,19 @@
       </c>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="G20" s="19" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
       <c r="M20" s="6">
         <v>3</v>
       </c>
@@ -1681,7 +1669,7 @@
       </c>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>1</v>
       </c>
@@ -1732,14 +1720,14 @@
       <c r="J22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>2</v>
       </c>
@@ -1773,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>3</v>
       </c>
@@ -1807,7 +1795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>3</v>
       </c>
@@ -1841,7 +1829,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>4</v>
       </c>
@@ -1863,7 +1851,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>5</v>
       </c>
@@ -1885,7 +1873,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>6</v>
       </c>
@@ -1896,12 +1884,12 @@
         <v>19</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="M28" s="6">
         <v>5</v>
       </c>
@@ -1913,7 +1901,7 @@
       </c>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>7</v>
       </c>
@@ -1949,7 +1937,7 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>8</v>
       </c>
@@ -1985,7 +1973,7 @@
       </c>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>9</v>
       </c>
@@ -2021,7 +2009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G32" s="6">
         <v>3</v>
       </c>
@@ -2033,21 +2021,21 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B33" s="19" t="s">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="M33" s="22" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="M33" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="28"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>0</v>
       </c>
@@ -2060,12 +2048,12 @@
       <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
       <c r="M34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>1</v>
       </c>
@@ -2117,7 +2105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>2</v>
       </c>
@@ -2151,7 +2139,7 @@
       </c>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G37" s="6">
         <v>2</v>
       </c>
@@ -2175,7 +2163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G38" s="6">
         <v>3</v>
       </c>
@@ -2199,15 +2187,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B39" s="19" t="s">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>0</v>
       </c>
@@ -2220,20 +2208,20 @@
       <c r="E40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21"/>
-      <c r="M40" s="19" t="s">
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+      <c r="M40" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="21"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>1</v>
       </c>
@@ -2271,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>2</v>
       </c>
@@ -2307,7 +2295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>3</v>
       </c>
@@ -2339,7 +2327,7 @@
       </c>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G44" s="6">
         <v>3</v>
       </c>
@@ -2353,13 +2341,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="19" t="s">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
       <c r="G45" s="6">
         <v>4</v>
       </c>
@@ -2370,14 +2358,14 @@
         <v>19</v>
       </c>
       <c r="J45" s="6"/>
-      <c r="M45" s="19" t="s">
+      <c r="M45" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="21"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <v>1</v>
       </c>
@@ -2449,7 +2437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <v>2</v>
       </c>
@@ -2481,7 +2469,7 @@
       </c>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <v>3</v>
       </c>
@@ -2505,7 +2493,7 @@
       </c>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
         <v>4</v>
       </c>
@@ -2533,18 +2521,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="G40:J40"/>
     <mergeCell ref="M40:P40"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M3:P3"/>
@@ -2552,6 +2528,18 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2559,69 +2547,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="78" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="3"/>
-    <col min="6" max="6" width="5.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.06640625" style="3"/>
-    <col min="12" max="12" width="5.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.06640625" style="3"/>
-    <col min="17" max="17" width="5.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.06640625" style="3"/>
-    <col min="22" max="22" width="5.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3"/>
+    <col min="17" max="17" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.06640625" style="3"/>
+    <col min="26" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="L1" s="26" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="L1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="Q1" s="22" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="Q1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="24"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2670,14 +2658,14 @@
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="25"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2739,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2793,7 +2781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2837,7 +2825,7 @@
       </c>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2850,12 +2838,12 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -2887,7 +2875,7 @@
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2923,16 +2911,16 @@
         <v>51</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="Q7" s="27">
+      <c r="Q7" s="19">
         <v>6</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="S7" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="V7" s="1">
@@ -2946,7 +2934,7 @@
       </c>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2993,7 +2981,7 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -3016,12 +3004,12 @@
         <v>19</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
       <c r="Q9" s="1">
         <v>8</v>
       </c>
@@ -3032,20 +3020,20 @@
         <v>19</v>
       </c>
       <c r="T9" s="1"/>
-      <c r="V9" s="27">
+      <c r="V9" s="19">
         <v>6</v>
       </c>
-      <c r="W9" s="27" t="s">
+      <c r="W9" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="X9" s="27" t="s">
+      <c r="X9" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Y9" s="27" t="s">
+      <c r="Y9" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -3056,16 +3044,16 @@
         <v>19</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -3101,7 +3089,7 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <v>1</v>
       </c>
@@ -3119,19 +3107,19 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="F12" s="26" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="F12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
       <c r="L12" s="1">
         <v>2</v>
       </c>
@@ -3142,14 +3130,14 @@
         <v>19</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3196,14 +3184,14 @@
       <c r="T13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="24"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="25"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3265,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3301,8 +3289,8 @@
       <c r="V15" s="1">
         <v>1</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>66</v>
+      <c r="W15" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>20</v>
@@ -3311,7 +3299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -3332,12 +3320,12 @@
         <v>19</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
       <c r="Q16" s="1">
         <v>3</v>
       </c>
@@ -3354,14 +3342,14 @@
         <v>2</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -3419,7 +3407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -3465,7 +3453,7 @@
       </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L19" s="1">
         <v>2</v>
       </c>
@@ -3487,19 +3475,19 @@
       </c>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="F20" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
       <c r="L20" s="1">
         <v>3</v>
       </c>
@@ -3512,14 +3500,14 @@
       <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="26" t="s">
+      <c r="Q20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3566,14 +3554,14 @@
       <c r="T21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="24"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="V21" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="25"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -3623,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -3658,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>20</v>
@@ -3667,7 +3655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -3704,14 +3692,14 @@
         <v>2</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -3732,12 +3720,12 @@
         <v>126</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
       <c r="Q25" s="1">
         <v>4</v>
       </c>
@@ -3754,14 +3742,14 @@
         <v>3</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -3784,16 +3772,16 @@
         <v>51</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M26" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="31" t="s">
+      <c r="M26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="1"/>
@@ -3801,7 +3789,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -3824,26 +3812,26 @@
       <c r="I27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="31">
-        <v>1</v>
-      </c>
-      <c r="M27" s="31" t="s">
+      <c r="L27" s="21">
+        <v>1</v>
+      </c>
+      <c r="M27" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="N27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="31" t="s">
+      <c r="N27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q27" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>6</v>
       </c>
@@ -3854,36 +3842,36 @@
         <v>19</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="L28" s="31">
-        <v>2</v>
-      </c>
-      <c r="M28" s="31" t="s">
+      <c r="L28" s="21">
+        <v>2</v>
+      </c>
+      <c r="M28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="N28" s="31" t="s">
+      <c r="N28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="Q28" s="27" t="s">
+      <c r="O28" s="21"/>
+      <c r="Q28" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="R28" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="V28" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="24"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="R28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="25"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -3894,32 +3882,32 @@
         <v>19</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="F29" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="L29" s="31">
-        <v>3</v>
-      </c>
-      <c r="M29" s="31" t="s">
+      <c r="F29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="L29" s="21">
+        <v>3</v>
+      </c>
+      <c r="M29" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="31" t="s">
+      <c r="N29" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="Q29" s="27">
-        <v>1</v>
-      </c>
-      <c r="R29" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="S29" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T29" s="27" t="s">
+      <c r="O29" s="21"/>
+      <c r="Q29" s="19">
+        <v>1</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="19" t="s">
         <v>17</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -3935,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -3946,43 +3934,43 @@
         <v>19</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" s="31">
+      <c r="G30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="21">
         <v>4</v>
       </c>
-      <c r="M30" s="31" t="s">
+      <c r="M30" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="N30" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="O30" s="31"/>
-      <c r="Q30" s="27">
-        <v>2</v>
-      </c>
-      <c r="R30" s="27" t="s">
+      <c r="N30" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O30" s="21"/>
+      <c r="Q30" s="19">
+        <v>2</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="S30" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="S30" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="T30" s="27"/>
+      <c r="T30" s="19"/>
       <c r="V30" s="1">
         <v>1</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>20</v>
@@ -3991,7 +3979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -4002,52 +3990,52 @@
         <v>19</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="27">
-        <v>1</v>
-      </c>
-      <c r="G31" s="27" t="s">
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="27" t="s">
+      <c r="H31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="21">
         <v>5</v>
       </c>
-      <c r="M31" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="N31" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="31" t="s">
+      <c r="M31" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q31" s="27">
-        <v>3</v>
-      </c>
-      <c r="R31" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="S31" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T31" s="27"/>
+      <c r="Q31" s="19">
+        <v>3</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" s="19"/>
       <c r="V31" s="1">
         <v>2</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -4058,464 +4046,449 @@
         <v>121</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="F32" s="27">
-        <v>2</v>
-      </c>
-      <c r="G32" s="27" t="s">
+      <c r="F32" s="19">
+        <v>2</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="Q32" s="19">
+        <v>4</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="T32" s="19"/>
+      <c r="V32" s="1">
+        <v>3</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F33" s="19">
+        <v>3</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H32" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="Q32" s="27">
+      <c r="H33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="Q33" s="19">
+        <v>5</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T33" s="19"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="L34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>6</v>
+      </c>
+      <c r="R34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="S32" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="T32" s="27"/>
-      <c r="V32" s="1">
-        <v>3</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F33" s="27">
-        <v>3</v>
-      </c>
-      <c r="G33" s="27" t="s">
+      <c r="S34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="V34" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F35" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="27" t="s">
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="L35" s="19">
+        <v>1</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W35" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="19">
+        <v>2</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="Q36" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="V36" s="19">
+        <v>1</v>
+      </c>
+      <c r="W36" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="19">
+        <v>3</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="Q33" s="27">
+      <c r="Q37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T37" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="19">
+        <v>2</v>
+      </c>
+      <c r="W37" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X37" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F38" s="19">
+        <v>2</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="L38" s="19">
+        <v>4</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>1</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V38" s="19">
+        <v>3</v>
+      </c>
+      <c r="W38" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X38" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F39" s="19">
+        <v>3</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>2</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="T39" s="19"/>
+      <c r="V39" s="19">
+        <v>4</v>
+      </c>
+      <c r="W39" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="L40" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="Q40" s="19">
+        <v>3</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T40" s="19"/>
+      <c r="V40" s="19">
         <v>5</v>
       </c>
-      <c r="R33" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="S33" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T33" s="27"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="L34" s="27" t="s">
+      <c r="W40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="X40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F41" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="L41" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>6</v>
-      </c>
-      <c r="R34" s="27" t="s">
+      <c r="M41" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="19">
         <v>4</v>
       </c>
-      <c r="S34" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T34" s="27" t="s">
+      <c r="R41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V34" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F35" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="L35" s="27">
-        <v>1</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="27" t="s">
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F42" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="19">
+        <v>1</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="V35" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="X35" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F36" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L36" s="27">
-        <v>2</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="27"/>
-      <c r="Q36" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="V36" s="27">
-        <v>1</v>
-      </c>
-      <c r="W36" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="X36" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y36" s="27" t="s">
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F43" s="19">
+        <v>1</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F37" s="27">
-        <v>1</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="27">
-        <v>3</v>
-      </c>
-      <c r="M37" s="27" t="s">
+      <c r="L43" s="19">
+        <v>2</v>
+      </c>
+      <c r="M43" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="N37" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S37" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="V37" s="27">
-        <v>2</v>
-      </c>
-      <c r="W37" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="X37" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y37" s="27"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F38" s="27">
-        <v>2</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="L38" s="27">
-        <v>4</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="27">
-        <v>1</v>
-      </c>
-      <c r="R38" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="S38" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="V38" s="27">
-        <v>3</v>
-      </c>
-      <c r="W38" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="X38" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y38" s="27"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F39" s="27">
-        <v>3</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>2</v>
-      </c>
-      <c r="R39" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="S39" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="T39" s="27"/>
-      <c r="V39" s="27">
-        <v>4</v>
-      </c>
-      <c r="W39" s="27" t="s">
+      <c r="N43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O43" s="19"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F44" s="19">
+        <v>2</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="X39" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y39" s="27"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="L40" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="Q40" s="27">
-        <v>3</v>
-      </c>
-      <c r="R40" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="S40" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T40" s="27"/>
-      <c r="V40" s="27">
-        <v>5</v>
-      </c>
-      <c r="W40" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="X40" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y40" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F41" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="L41" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>4</v>
-      </c>
-      <c r="R41" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T41" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F42" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="27">
-        <v>1</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F43" s="27">
-        <v>1</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="27">
-        <v>2</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O43" s="27"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="F44" s="27">
-        <v>2</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B46" s="17" t="s">
+      <c r="C46" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B47" s="27"/>
-      <c r="C47" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:I12"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F41:I41"/>
@@ -4527,6 +4500,21 @@
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="L40:O40"/>
     <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Q20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4534,12 +4522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modified IdeaFund Normalization Shivam.xlsx
+++ b/Modified IdeaFund Normalization Shivam.xlsx
@@ -798,9 +798,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,6 +814,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,24 +1147,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="M3" s="23" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="M3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1313,12 +1313,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
@@ -1345,12 +1345,12 @@
       <c r="J9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
@@ -1502,12 +1502,12 @@
       <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
@@ -1534,12 +1534,12 @@
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
@@ -1646,18 +1646,18 @@
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="G20" s="23" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
       <c r="M20" s="6">
         <v>3</v>
       </c>
@@ -1720,12 +1720,12 @@
       <c r="J22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
@@ -1884,12 +1884,12 @@
         <v>19</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
       <c r="M28" s="6">
         <v>5</v>
       </c>
@@ -2022,18 +2022,18 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="M33" s="26" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="M33" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="28"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
@@ -2048,12 +2048,12 @@
       <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
       <c r="M34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,12 +2188,12 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
@@ -2208,18 +2208,18 @@
       <c r="E40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
-      <c r="M40" s="23" t="s">
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="24"/>
+      <c r="M40" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="25"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="24"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -2342,12 +2342,12 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
       <c r="G45" s="6">
         <v>4</v>
       </c>
@@ -2358,12 +2358,12 @@
         <v>19</v>
       </c>
       <c r="J45" s="6"/>
-      <c r="M45" s="23" t="s">
+      <c r="M45" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="25"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
@@ -2521,6 +2521,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="G40:J40"/>
     <mergeCell ref="M40:P40"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M3:P3"/>
@@ -2528,18 +2540,6 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2550,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,30 +2584,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="L1" s="22" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="L1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="Q1" s="23" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="Q1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2658,12 +2658,12 @@
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="25"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="24"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2838,12 +2838,12 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -3004,12 +3004,12 @@
         <v>19</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
       <c r="Q9" s="1">
         <v>8</v>
       </c>
@@ -3108,18 +3108,18 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="F12" s="22" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="F12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="L12" s="1">
         <v>2</v>
       </c>
@@ -3130,12 +3130,12 @@
         <v>19</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3184,12 +3184,12 @@
       <c r="T13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="V13" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="25"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="24"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3320,12 +3320,12 @@
         <v>19</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
       <c r="Q16" s="1">
         <v>3</v>
       </c>
@@ -3476,18 +3476,18 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="F20" s="22" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="F20" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="L20" s="1">
         <v>3</v>
       </c>
@@ -3500,12 +3500,12 @@
       <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="Q20" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3554,12 +3554,12 @@
       <c r="T21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="23" t="s">
+      <c r="V21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="24"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -3720,12 +3720,12 @@
         <v>126</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
       <c r="Q25" s="1">
         <v>4</v>
       </c>
@@ -3824,12 +3824,12 @@
       <c r="O27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="22" t="s">
+      <c r="Q27" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -3864,12 +3864,12 @@
       <c r="T28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="23" t="s">
+      <c r="V28" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="25"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="24"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -3882,12 +3882,12 @@
         <v>19</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="L29" s="21">
         <v>3</v>
       </c>
@@ -4090,12 +4090,12 @@
       <c r="I33" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="L33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
       <c r="Q33" s="19">
         <v>5</v>
       </c>
@@ -4136,20 +4136,20 @@
       <c r="T34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V34" s="22" t="s">
+      <c r="V34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="L35" s="19">
         <v>1</v>
       </c>
@@ -4198,12 +4198,12 @@
         <v>19</v>
       </c>
       <c r="O36" s="19"/>
-      <c r="Q36" s="22" t="s">
+      <c r="Q36" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
       <c r="V36" s="19">
         <v>1</v>
       </c>
@@ -4350,12 +4350,12 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
       <c r="Q40" s="19">
         <v>3</v>
       </c>
@@ -4380,12 +4380,12 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="L41" s="19" t="s">
         <v>0</v>
       </c>
@@ -4489,6 +4489,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F41:I41"/>
@@ -4500,21 +4515,6 @@
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="L40:O40"/>
     <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Q20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Modified IdeaFund Normalization Shivam.xlsx
+++ b/Modified IdeaFund Normalization Shivam.xlsx
@@ -628,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,6 +804,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,24 +1156,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="G3" s="22" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="M3" s="22" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="M3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1313,12 +1322,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
@@ -1345,12 +1354,12 @@
       <c r="J9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
@@ -1502,12 +1511,12 @@
       <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
@@ -1534,12 +1543,12 @@
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
@@ -1646,18 +1655,18 @@
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="G20" s="22" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
       <c r="M20" s="6">
         <v>3</v>
       </c>
@@ -1720,12 +1729,12 @@
       <c r="J22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
@@ -1884,12 +1893,12 @@
         <v>19</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="M28" s="6">
         <v>5</v>
       </c>
@@ -2022,18 +2031,18 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="M33" s="25" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="M33" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="28"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
@@ -2048,12 +2057,12 @@
       <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
       <c r="M34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,12 +2197,12 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
@@ -2208,18 +2217,18 @@
       <c r="E40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
-      <c r="M40" s="22" t="s">
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+      <c r="M40" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="25"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -2342,12 +2351,12 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
       <c r="G45" s="6">
         <v>4</v>
       </c>
@@ -2358,12 +2367,12 @@
         <v>19</v>
       </c>
       <c r="J45" s="6"/>
-      <c r="M45" s="22" t="s">
+      <c r="M45" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="25"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
@@ -2521,18 +2530,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="G40:J40"/>
     <mergeCell ref="M40:P40"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M3:P3"/>
@@ -2540,6 +2537,18 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2550,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,30 +2593,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="L1" s="28" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="L1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="Q1" s="22" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="Q1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2658,12 +2667,12 @@
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="25"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2826,24 +2835,24 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -3004,12 +3013,12 @@
         <v>19</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
       <c r="Q9" s="1">
         <v>8</v>
       </c>
@@ -3108,18 +3117,18 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="F12" s="28" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="F12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
       <c r="L12" s="1">
         <v>2</v>
       </c>
@@ -3130,12 +3139,12 @@
         <v>19</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3184,12 +3193,12 @@
       <c r="T13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="25"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3320,12 +3329,12 @@
         <v>19</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
       <c r="Q16" s="1">
         <v>3</v>
       </c>
@@ -3476,18 +3485,18 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="F20" s="28" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="F20" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
       <c r="L20" s="1">
         <v>3</v>
       </c>
@@ -3500,12 +3509,12 @@
       <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="28" t="s">
+      <c r="Q20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3554,12 +3563,12 @@
       <c r="T21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="22" t="s">
+      <c r="V21" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="25"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -3720,12 +3729,12 @@
         <v>126</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
       <c r="Q25" s="1">
         <v>4</v>
       </c>
@@ -3824,12 +3833,12 @@
       <c r="O27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="28" t="s">
+      <c r="Q27" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -3864,12 +3873,12 @@
       <c r="T28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="22" t="s">
+      <c r="V28" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="25"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -3882,12 +3891,12 @@
         <v>19</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="L29" s="21">
         <v>3</v>
       </c>
@@ -4090,12 +4099,12 @@
       <c r="I33" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
       <c r="Q33" s="19">
         <v>5</v>
       </c>
@@ -4136,20 +4145,20 @@
       <c r="T34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V34" s="28" t="s">
+      <c r="V34" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
       <c r="L35" s="19">
         <v>1</v>
       </c>
@@ -4198,12 +4207,12 @@
         <v>19</v>
       </c>
       <c r="O36" s="19"/>
-      <c r="Q36" s="28" t="s">
+      <c r="Q36" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
       <c r="V36" s="19">
         <v>1</v>
       </c>
@@ -4350,12 +4359,12 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="L40" s="28" t="s">
+      <c r="L40" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
       <c r="Q40" s="19">
         <v>3</v>
       </c>
@@ -4380,12 +4389,12 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
       <c r="L41" s="19" t="s">
         <v>0</v>
       </c>
@@ -4489,21 +4498,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:I12"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F41:I41"/>
@@ -4515,6 +4509,21 @@
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="L40:O40"/>
     <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Q20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Modified IdeaFund Normalization Shivam.xlsx
+++ b/Modified IdeaFund Normalization Shivam.xlsx
@@ -804,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1156,12 +1156,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
@@ -1893,12 +1893,12 @@
         <v>19</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
       <c r="M28" s="6">
         <v>5</v>
       </c>
@@ -2530,6 +2530,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="G40:J40"/>
     <mergeCell ref="M40:P40"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M3:P3"/>
@@ -2537,18 +2549,6 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2559,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,24 +2593,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="F1" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="25"/>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
       <c r="Q1" s="23" t="s">
         <v>56</v>
       </c>
@@ -2835,16 +2835,16 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -3123,12 +3123,12 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="L12" s="1">
         <v>2</v>
       </c>
@@ -3491,12 +3491,12 @@
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="L20" s="1">
         <v>3</v>
       </c>
@@ -3509,12 +3509,12 @@
       <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="Q20" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3729,12 +3729,12 @@
         <v>126</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
       <c r="Q25" s="1">
         <v>4</v>
       </c>
@@ -3833,12 +3833,12 @@
       <c r="O27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="22" t="s">
+      <c r="Q27" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -3891,12 +3891,12 @@
         <v>19</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
       <c r="L29" s="21">
         <v>3</v>
       </c>
@@ -4099,12 +4099,12 @@
       <c r="I33" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="L33" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
       <c r="Q33" s="19">
         <v>5</v>
       </c>
@@ -4145,20 +4145,20 @@
       <c r="T34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V34" s="22" t="s">
+      <c r="V34" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
       <c r="L35" s="19">
         <v>1</v>
       </c>
@@ -4207,12 +4207,12 @@
         <v>19</v>
       </c>
       <c r="O36" s="19"/>
-      <c r="Q36" s="22" t="s">
+      <c r="Q36" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
       <c r="V36" s="19">
         <v>1</v>
       </c>
@@ -4359,12 +4359,12 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
       <c r="Q40" s="19">
         <v>3</v>
       </c>
@@ -4389,12 +4389,12 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
       <c r="L41" s="19" t="s">
         <v>0</v>
       </c>
@@ -4498,6 +4498,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F41:I41"/>
@@ -4509,21 +4524,6 @@
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="L40:O40"/>
     <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Q20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
